--- a/data/_meta/hs1006_th.xlsx
+++ b/data/_meta/hs1006_th.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40BDC67F-D541-4AEE-A67A-7225ADFF9351}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E04671D1-5CBD-403C-9658-F08973BF6949}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="hs_rice" sheetId="3" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2895" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2984" uniqueCount="490">
   <si>
     <t>CODE</t>
   </si>
@@ -1402,6 +1402,105 @@
   </si>
   <si>
     <t>45</t>
+  </si>
+  <si>
+    <t>10062090606</t>
+  </si>
+  <si>
+    <t>ข้าวกล้องเจ้าสีดำ สีม่วงดำ และสีม่วง ชั้นดีเลิศ</t>
+  </si>
+  <si>
+    <t>10062090607</t>
+  </si>
+  <si>
+    <t>ข้าวกล้องเจ้าสีดำ สีม่วงดำ และสีม่วง ชั้นดีพิเศษ</t>
+  </si>
+  <si>
+    <t>10062090608</t>
+  </si>
+  <si>
+    <t>ข้าวกล้องเจ้าสีดำ สีม่วงดำ และสีม่วง ชั้นดีเลิศ (ข้าวอินทรีย)</t>
+  </si>
+  <si>
+    <t>10062090609</t>
+  </si>
+  <si>
+    <t>ข้าวกล้องเจ้าสีดำ สีม่วงดำ และสีม่วง ชั้นดีพิเศษ (ข้าวอินทรีย์)</t>
+  </si>
+  <si>
+    <t>10062090610</t>
+  </si>
+  <si>
+    <t>10062090612</t>
+  </si>
+  <si>
+    <t>ข้าวกล้องเจ้าสีแดง ชั้นดีเลิศ</t>
+  </si>
+  <si>
+    <t>10062090613</t>
+  </si>
+  <si>
+    <t>ข้าวกล้องเจ้าสีแดง ชั้นดีพิเศษ</t>
+  </si>
+  <si>
+    <t>10062090614</t>
+  </si>
+  <si>
+    <t>ข้าวกล้องเจ้าสีแดง ชั้นดีเลิศ (ข้าวอินทรีย์)</t>
+  </si>
+  <si>
+    <t>10062090615</t>
+  </si>
+  <si>
+    <t>ข้าวกล้องเจ้าสีแดง ชั้นดีพิเศษ (ข้าวอินทรีย์)</t>
+  </si>
+  <si>
+    <t>10062090616</t>
+  </si>
+  <si>
+    <t>10062090618</t>
+  </si>
+  <si>
+    <t>ข้าวกล้องเหนียวสีดำ สีม่วงดำ และสีม่วง ชั้นดี</t>
+  </si>
+  <si>
+    <t>10062090619</t>
+  </si>
+  <si>
+    <t>ข้าวกล้องเหนียวสีดำ สีม่วงดำ และสีม่วง ชั้นมาตรฐาน</t>
+  </si>
+  <si>
+    <t>10062090622</t>
+  </si>
+  <si>
+    <t>10062090630</t>
+  </si>
+  <si>
+    <t>ข้าวกล้องสีผสมพิเศษ (ตามตัวอย่าง)</t>
+  </si>
+  <si>
+    <t>10062090632</t>
+  </si>
+  <si>
+    <t>ข้าวกล้องสีที่มิได้ระบุไว้ที่อื่น (ตามตัวอย่าง)</t>
+  </si>
+  <si>
+    <t>10062090633</t>
+  </si>
+  <si>
+    <t>ข้าวกล้องสีที่มิได้ระบุไว้ที่อื่น (ตามตัวอย่าง) (อินทรีย์)</t>
+  </si>
+  <si>
+    <t>10064090608</t>
+  </si>
+  <si>
+    <t>Broken non-glutinous rice of Thai Fragant rice, Thai Jasmine rice, Thai Aromatic rice or any other names of same meaning (as sample) (Organic) (KGM)</t>
+  </si>
+  <si>
+    <t>10064090609</t>
+  </si>
+  <si>
+    <t>Broken husked rice (cargo rice), n.e.s (as sample) (Organic) (KGM)</t>
   </si>
 </sst>
 </file>
@@ -1455,7 +1554,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1474,6 +1573,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1489,7 +1594,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1525,6 +1630,9 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2149,7 +2257,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table5" displayName="Table5" ref="A1:G201" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table5" displayName="Table5" ref="A1:G219" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31">
   <sortState ref="A2:F201">
     <sortCondition ref="A1:A201"/>
   </sortState>
@@ -2520,16 +2628,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J201"/>
+  <dimension ref="A1:J219"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A181" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B190" sqref="B190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="11.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="75.88671875" style="8" customWidth="1"/>
+    <col min="1" max="1" width="16" style="8" customWidth="1"/>
+    <col min="2" max="2" width="79.109375" style="8" customWidth="1"/>
     <col min="3" max="3" width="12.88671875" style="19" customWidth="1"/>
     <col min="4" max="5" width="12" style="9" customWidth="1"/>
     <col min="6" max="6" width="9.88671875" customWidth="1"/>
@@ -7909,27 +8017,27 @@
       <c r="J192" s="8"/>
     </row>
     <row r="193" spans="1:10">
-      <c r="A193" s="8" t="s">
+      <c r="A193" s="21" t="s">
         <v>339</v>
       </c>
-      <c r="B193" s="8" t="s">
+      <c r="B193" s="21" t="s">
         <v>316</v>
       </c>
-      <c r="C193" s="19" t="str">
-        <f>IF(ISNUMBER(SEARCH("อินทรีย์",Table5[[#This Row],[rice_name]])),"organic","non-organic")</f>
-        <v>non-organic</v>
-      </c>
-      <c r="D193" s="9" t="s">
-        <v>425</v>
-      </c>
-      <c r="E193" s="9" t="s">
-        <v>431</v>
-      </c>
-      <c r="F193" s="19">
-        <f>IF(ISNUMBER(SEARCH("นึ่ง",Table5[[#This Row],[rice_name]])),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G193" s="9" t="s">
+      <c r="C193" s="22" t="str">
+        <f>IF(ISNUMBER(SEARCH("อินทรีย์",Table5[[#This Row],[rice_name]])),"organic","non-organic")</f>
+        <v>non-organic</v>
+      </c>
+      <c r="D193" s="23" t="s">
+        <v>426</v>
+      </c>
+      <c r="E193" s="23" t="s">
+        <v>431</v>
+      </c>
+      <c r="F193" s="22">
+        <f>IF(ISNUMBER(SEARCH("นึ่ง",Table5[[#This Row],[rice_name]])),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G193" s="23" t="s">
         <v>428</v>
       </c>
       <c r="H193" s="8"/>
@@ -8159,6 +8267,445 @@
       <c r="H201" s="8"/>
       <c r="I201" s="8"/>
       <c r="J201" s="8"/>
+    </row>
+    <row r="202" spans="1:10">
+      <c r="A202" s="8" t="s">
+        <v>457</v>
+      </c>
+      <c r="B202" s="8" t="s">
+        <v>458</v>
+      </c>
+      <c r="C202" s="19" t="str">
+        <f>IF(ISNUMBER(SEARCH("อินทรีย์",Table5[[#This Row],[rice_name]])),"organic","non-organic")</f>
+        <v>non-organic</v>
+      </c>
+      <c r="D202" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="E202" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="F202" s="19">
+        <f>IF(ISNUMBER(SEARCH("นึ่ง",Table5[[#This Row],[rice_name]])),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G202" s="9" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10">
+      <c r="A203" s="8" t="s">
+        <v>459</v>
+      </c>
+      <c r="B203" s="8" t="s">
+        <v>460</v>
+      </c>
+      <c r="C203" s="19" t="str">
+        <f>IF(ISNUMBER(SEARCH("อินทรีย์",Table5[[#This Row],[rice_name]])),"organic","non-organic")</f>
+        <v>non-organic</v>
+      </c>
+      <c r="D203" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="E203" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="F203" s="19">
+        <f>IF(ISNUMBER(SEARCH("นึ่ง",Table5[[#This Row],[rice_name]])),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G203" s="9" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10">
+      <c r="A204" s="8" t="s">
+        <v>461</v>
+      </c>
+      <c r="B204" s="8" t="s">
+        <v>462</v>
+      </c>
+      <c r="C204" s="19" t="str">
+        <f>IF(ISNUMBER(SEARCH("อินทรีย์",Table5[[#This Row],[rice_name]])),"organic","non-organic")</f>
+        <v>non-organic</v>
+      </c>
+      <c r="D204" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="E204" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="F204" s="19">
+        <f>IF(ISNUMBER(SEARCH("นึ่ง",Table5[[#This Row],[rice_name]])),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G204" s="9" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10">
+      <c r="A205" s="8" t="s">
+        <v>463</v>
+      </c>
+      <c r="B205" s="8" t="s">
+        <v>464</v>
+      </c>
+      <c r="C205" s="19" t="str">
+        <f>IF(ISNUMBER(SEARCH("อินทรีย์",Table5[[#This Row],[rice_name]])),"organic","non-organic")</f>
+        <v>organic</v>
+      </c>
+      <c r="D205" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="E205" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="F205" s="19">
+        <f>IF(ISNUMBER(SEARCH("นึ่ง",Table5[[#This Row],[rice_name]])),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G205" s="9" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10">
+      <c r="A206" s="8" t="s">
+        <v>465</v>
+      </c>
+      <c r="C206" s="19" t="str">
+        <f>IF(ISNUMBER(SEARCH("อินทรีย์",Table5[[#This Row],[rice_name]])),"organic","non-organic")</f>
+        <v>non-organic</v>
+      </c>
+      <c r="D206" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="E206" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="F206" s="19">
+        <f>IF(ISNUMBER(SEARCH("นึ่ง",Table5[[#This Row],[rice_name]])),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G206" s="9" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10">
+      <c r="A207" s="8" t="s">
+        <v>466</v>
+      </c>
+      <c r="B207" s="8" t="s">
+        <v>467</v>
+      </c>
+      <c r="C207" s="19" t="str">
+        <f>IF(ISNUMBER(SEARCH("อินทรีย์",Table5[[#This Row],[rice_name]])),"organic","non-organic")</f>
+        <v>non-organic</v>
+      </c>
+      <c r="D207" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="E207" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="F207" s="19">
+        <f>IF(ISNUMBER(SEARCH("นึ่ง",Table5[[#This Row],[rice_name]])),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G207" s="9" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10">
+      <c r="A208" s="8" t="s">
+        <v>468</v>
+      </c>
+      <c r="B208" s="8" t="s">
+        <v>469</v>
+      </c>
+      <c r="C208" s="19" t="str">
+        <f>IF(ISNUMBER(SEARCH("อินทรีย์",Table5[[#This Row],[rice_name]])),"organic","non-organic")</f>
+        <v>non-organic</v>
+      </c>
+      <c r="D208" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="E208" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="F208" s="19">
+        <f>IF(ISNUMBER(SEARCH("นึ่ง",Table5[[#This Row],[rice_name]])),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G208" s="9" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7">
+      <c r="A209" s="8" t="s">
+        <v>470</v>
+      </c>
+      <c r="B209" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="C209" s="19" t="str">
+        <f>IF(ISNUMBER(SEARCH("อินทรีย์",Table5[[#This Row],[rice_name]])),"organic","non-organic")</f>
+        <v>organic</v>
+      </c>
+      <c r="D209" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="E209" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="F209" s="19">
+        <f>IF(ISNUMBER(SEARCH("นึ่ง",Table5[[#This Row],[rice_name]])),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G209" s="9" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7">
+      <c r="A210" s="8" t="s">
+        <v>472</v>
+      </c>
+      <c r="B210" s="8" t="s">
+        <v>473</v>
+      </c>
+      <c r="C210" s="19" t="str">
+        <f>IF(ISNUMBER(SEARCH("อินทรีย์",Table5[[#This Row],[rice_name]])),"organic","non-organic")</f>
+        <v>organic</v>
+      </c>
+      <c r="D210" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="E210" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="F210" s="19">
+        <f>IF(ISNUMBER(SEARCH("นึ่ง",Table5[[#This Row],[rice_name]])),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G210" s="9" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7">
+      <c r="A211" s="8" t="s">
+        <v>474</v>
+      </c>
+      <c r="C211" s="19" t="str">
+        <f>IF(ISNUMBER(SEARCH("อินทรีย์",Table5[[#This Row],[rice_name]])),"organic","non-organic")</f>
+        <v>non-organic</v>
+      </c>
+      <c r="D211" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="E211" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="F211" s="19">
+        <f>IF(ISNUMBER(SEARCH("นึ่ง",Table5[[#This Row],[rice_name]])),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G211" s="9" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7">
+      <c r="A212" s="8" t="s">
+        <v>475</v>
+      </c>
+      <c r="B212" s="8" t="s">
+        <v>476</v>
+      </c>
+      <c r="C212" s="19" t="str">
+        <f>IF(ISNUMBER(SEARCH("อินทรีย์",Table5[[#This Row],[rice_name]])),"organic","non-organic")</f>
+        <v>non-organic</v>
+      </c>
+      <c r="D212" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="E212" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="F212" s="19">
+        <f>IF(ISNUMBER(SEARCH("นึ่ง",Table5[[#This Row],[rice_name]])),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G212" s="9" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7">
+      <c r="A213" s="8" t="s">
+        <v>477</v>
+      </c>
+      <c r="B213" s="8" t="s">
+        <v>478</v>
+      </c>
+      <c r="C213" s="19" t="str">
+        <f>IF(ISNUMBER(SEARCH("อินทรีย์",Table5[[#This Row],[rice_name]])),"organic","non-organic")</f>
+        <v>non-organic</v>
+      </c>
+      <c r="D213" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="E213" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="F213" s="19">
+        <f>IF(ISNUMBER(SEARCH("นึ่ง",Table5[[#This Row],[rice_name]])),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G213" s="9" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7">
+      <c r="A214" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="C214" s="19" t="str">
+        <f>IF(ISNUMBER(SEARCH("อินทรีย์",Table5[[#This Row],[rice_name]])),"organic","non-organic")</f>
+        <v>non-organic</v>
+      </c>
+      <c r="D214" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="E214" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="F214" s="19">
+        <f>IF(ISNUMBER(SEARCH("นึ่ง",Table5[[#This Row],[rice_name]])),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G214" s="9" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7">
+      <c r="A215" s="8" t="s">
+        <v>480</v>
+      </c>
+      <c r="B215" s="8" t="s">
+        <v>481</v>
+      </c>
+      <c r="C215" s="19" t="str">
+        <f>IF(ISNUMBER(SEARCH("อินทรีย์",Table5[[#This Row],[rice_name]])),"organic","non-organic")</f>
+        <v>non-organic</v>
+      </c>
+      <c r="D215" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="E215" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="F215" s="19">
+        <f>IF(ISNUMBER(SEARCH("นึ่ง",Table5[[#This Row],[rice_name]])),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G215" s="9" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7">
+      <c r="A216" s="8" t="s">
+        <v>482</v>
+      </c>
+      <c r="B216" s="8" t="s">
+        <v>483</v>
+      </c>
+      <c r="C216" s="19" t="str">
+        <f>IF(ISNUMBER(SEARCH("อินทรีย์",Table5[[#This Row],[rice_name]])),"organic","non-organic")</f>
+        <v>non-organic</v>
+      </c>
+      <c r="D216" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="E216" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="F216" s="19">
+        <f>IF(ISNUMBER(SEARCH("นึ่ง",Table5[[#This Row],[rice_name]])),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G216" s="9" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7">
+      <c r="A217" s="8" t="s">
+        <v>484</v>
+      </c>
+      <c r="B217" s="8" t="s">
+        <v>485</v>
+      </c>
+      <c r="C217" s="19" t="str">
+        <f>IF(ISNUMBER(SEARCH("อินทรีย์",Table5[[#This Row],[rice_name]])),"organic","non-organic")</f>
+        <v>organic</v>
+      </c>
+      <c r="D217" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="E217" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="F217" s="19">
+        <f>IF(ISNUMBER(SEARCH("นึ่ง",Table5[[#This Row],[rice_name]])),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G217" s="9" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7">
+      <c r="A218" s="8" t="s">
+        <v>486</v>
+      </c>
+      <c r="B218" s="8" t="s">
+        <v>487</v>
+      </c>
+      <c r="C218" s="19" t="s">
+        <v>419</v>
+      </c>
+      <c r="D218" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="E218" s="9" t="s">
+        <v>431</v>
+      </c>
+      <c r="F218" s="19">
+        <f>IF(ISNUMBER(SEARCH("นึ่ง",Table5[[#This Row],[rice_name]])),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G218" s="9" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7">
+      <c r="A219" s="8" t="s">
+        <v>488</v>
+      </c>
+      <c r="B219" s="8" t="s">
+        <v>489</v>
+      </c>
+      <c r="C219" s="19" t="s">
+        <v>419</v>
+      </c>
+      <c r="D219" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="E219" s="9" t="s">
+        <v>431</v>
+      </c>
+      <c r="F219" s="19">
+        <f>IF(ISNUMBER(SEARCH("นึ่ง",Table5[[#This Row],[rice_name]])),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G219" s="9" t="s">
+        <v>428</v>
+      </c>
     </row>
   </sheetData>
   <dataConsolidate/>
@@ -8173,7 +8720,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G123"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
